--- a/inst/LISTE_PROJETS.xlsx
+++ b/inst/LISTE_PROJETS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>Date importation ACCESS</t>
   </si>
@@ -303,6 +303,9 @@
     <t>CONSERVATION_EDTA</t>
   </si>
   <si>
+    <t>Projet_pilote_conservation_ADN_HPM</t>
+  </si>
+  <si>
     <t>DIVERS_GENOMIQUE</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
   </si>
   <si>
     <t>DIVERS_ADNE</t>
+  </si>
+  <si>
+    <t>BELUGAS_MONITORAGE</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="24.86"/>
     <col customWidth="1" min="2" max="2" width="12.57"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
+    <col customWidth="1" min="3" max="3" width="30.0"/>
     <col customWidth="1" min="4" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="57.71"/>
     <col customWidth="1" min="6" max="6" width="35.57"/>
@@ -2178,7 +2184,9 @@
       <c r="D32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="F32" s="17" t="s">
         <v>78</v>
       </c>
@@ -2216,23 +2224,23 @@
         <v>13</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2257,23 +2265,23 @@
         <v>13</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2294,13 +2302,27 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="17">
+        <v>2022.0</v>
+      </c>
+      <c r="H35" s="17">
+        <v>11.0</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>

--- a/inst/LISTE_PROJETS.xlsx
+++ b/inst/LISTE_PROJETS.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
-    <t>Date importation ACCESS</t>
+    <t>Date_importation_ACCESS</t>
   </si>
   <si>
     <t>Type_projet</t>
@@ -69,13 +69,13 @@
     <t>Genomique</t>
   </si>
   <si>
-    <t>Determiner la structure des populations</t>
+    <t>Determiner_la_structure_des_populations</t>
   </si>
   <si>
-    <t>Genevieve Parent</t>
+    <t>Genevieve_Parent</t>
   </si>
   <si>
-    <t>Programme de recherche conjointe en sciences halieutiques</t>
+    <t>Programme_de_recherche_conjointe_en_sciences_halieutiques</t>
   </si>
   <si>
     <t/>
@@ -84,10 +84,10 @@
     <t>MOBELS</t>
   </si>
   <si>
-    <t>Genevieve Parent_Claudie Bonnet</t>
+    <t>Genevieve_Parent_Claudie_Bonnet</t>
   </si>
   <si>
-    <t>Fonds des résultats</t>
+    <t>Fonds_des_resultats</t>
   </si>
   <si>
     <t>Monitorage</t>
@@ -99,13 +99,13 @@
     <t>ADNe</t>
   </si>
   <si>
-    <t>Détecter l'espèce</t>
+    <t>Detecter_l_espece</t>
   </si>
   <si>
-    <t>Andréa Weise_Marion Chevrinais_Ariane Therien</t>
+    <t>Andrea_Weise_Marion_Chevrinais_Ariane_Therien</t>
   </si>
   <si>
-    <t>Espèces aquatiques envahissantes</t>
+    <t>Especes_aquatiques_envahissantes</t>
   </si>
   <si>
     <t>MAQUEREAUX_2021</t>
@@ -114,7 +114,7 @@
     <t>Elisabeth_Van_Beveren_Audrey_Bourret</t>
   </si>
   <si>
-    <t>Fonds de recherche scientifique compétitif</t>
+    <t>Fonds_de_recherche_scientifique_competitif</t>
   </si>
   <si>
     <t>MAQUEREAUX_2018</t>
@@ -129,16 +129,16 @@
     <t>PANOMICS</t>
   </si>
   <si>
-    <t xml:space="preserve">Genomics R&amp;D Initiative </t>
+    <t>Genomics_RetD_Initiative_</t>
   </si>
   <si>
     <t>PHOCA</t>
   </si>
   <si>
-    <t>Détecter l'espèce/Determiner la structure des populations</t>
+    <t>Detecter_l_espece_Determiner_la_structure_des_populations</t>
   </si>
   <si>
-    <t>Marion Chevrinais_Ariane Therien</t>
+    <t>Marion_Chevrinais_Ariane_Therien</t>
   </si>
   <si>
     <t>LEP</t>
@@ -147,67 +147,67 @@
     <t>REDTANKS</t>
   </si>
   <si>
-    <t>Déterminer l'espèce par qPCR /transcriptomique</t>
+    <t>Determiner_l_espece_par_qPCR__transcriptomique</t>
   </si>
   <si>
-    <t>Denis Chabot</t>
+    <t>Denis_Chabot</t>
   </si>
   <si>
     <t>WESTPOPCOD</t>
   </si>
   <si>
-    <t>Genevieve Parent_Gregory Puncher</t>
+    <t>Genevieve_Parent_Gregory_Puncher</t>
   </si>
   <si>
     <t>SEBASTESRAYONS</t>
   </si>
   <si>
-    <t>Déterminer l'espèce par ddRADseq/structure des populations</t>
+    <t>Determiner_l_espece_par_ddRADseq_structure_des_populations</t>
   </si>
   <si>
-    <t>Caroline Senay</t>
+    <t>Caroline_Senay</t>
   </si>
   <si>
     <t>CARCINUS</t>
   </si>
   <si>
-    <t>Nathalie Simard_Marion Chevrinais_Ariane Therien</t>
+    <t>Nathalie_Simard_Marion_Chevrinais_Ariane_Therien</t>
   </si>
   <si>
     <t>ANARHICHAS</t>
   </si>
   <si>
-    <t>Geneviève Faille_Marion Chevrinais_Ariane Therien</t>
+    <t>Genevieve_Faille_Marion_Chevrinais_Ariane_Therien</t>
   </si>
   <si>
     <t>DRESSEINA</t>
   </si>
   <si>
-    <t>Genevieve Parent, Marion Chevrinais, Ariane Therien</t>
+    <t>Genevieve_Parent_Marion_Chevrinais_Ariane_Therien</t>
   </si>
   <si>
-    <t>PMZA_RIKI</t>
+    <t>PMZA_RIMOUSKI</t>
   </si>
   <si>
-    <t>Détecter les espèces marines</t>
+    <t>Detecter_les_especes_marines</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonds des résultats, Espèces en péril, Genomics R&amp;D Initiative </t>
+    <t>Fonds_des_resultats_Especes_en_peril_Genomics_RetD_Initiative_</t>
   </si>
   <si>
     <t>MACTROMERIS</t>
   </si>
   <si>
-    <t>Virginie Roy</t>
+    <t>Virginie_Roy</t>
   </si>
   <si>
     <t>ATLAS</t>
   </si>
   <si>
-    <t>Déterminer les espèces marines consommé par Illex sp.</t>
+    <t>Determiner_les_especes_marines_consomme_par_Illex_sp.</t>
   </si>
   <si>
-    <t>Marie-Julie Roux</t>
+    <t>Marie-Julie_Roux</t>
   </si>
   <si>
     <t>NA</t>
@@ -216,70 +216,70 @@
     <t>BDA</t>
   </si>
   <si>
-    <t>Genevieve Faille</t>
+    <t>Genevieve_Faille</t>
   </si>
   <si>
     <t>TOXOPLASMOSE</t>
   </si>
   <si>
-    <t>Détecter le parasite</t>
+    <t>Detecter_le_parasite</t>
   </si>
   <si>
-    <t>Stéphane Lair, Benjamin Jakobek</t>
+    <t>Stephane_Lair_Benjamin_Jakobek</t>
   </si>
   <si>
-    <t>Centre québécois sur la santé des animaux sauvages_CQSAS</t>
+    <t>Centre_quebecois_sur_la_sante_des_animaux_sauvages_CQSAS</t>
   </si>
   <si>
     <t>CIONA</t>
   </si>
   <si>
-    <t>Nathalie Simard, Marion Chevrinais</t>
+    <t>Nathalie_Simard_Marion_Chevrinais</t>
   </si>
   <si>
     <t>CARCHARODON</t>
   </si>
   <si>
-    <t>Détecter le requin blanc</t>
+    <t>Detecter_le_requin_blanc</t>
   </si>
   <si>
-    <t>Xavier Bordeleau, Marion Chevrinais</t>
+    <t>Xavier_Bordeleau_Marion_Chevrinais</t>
   </si>
   <si>
     <t>LEPOMIS</t>
   </si>
   <si>
-    <t>Arianne Savoie, Marie-Pierre Veilleux</t>
+    <t>Arianne_Savoie_Marie-Pierre_Veilleux</t>
   </si>
   <si>
     <t>BALLES_ADNE</t>
   </si>
   <si>
-    <t>Claudie Bonnet</t>
+    <t>Claudie_Bonnet</t>
   </si>
   <si>
     <t>PPO</t>
   </si>
   <si>
-    <t>Yanick Gendreau, Sandra Velasquez</t>
+    <t>Yanick_Gendreau_Sandra_Velasquez</t>
   </si>
   <si>
     <t>CONTENUS_PHOQUES</t>
   </si>
   <si>
-    <t>Royces Steeve</t>
+    <t>Royces_Steeve</t>
   </si>
   <si>
     <t>CONTENUS_EGLACIALIS</t>
   </si>
   <si>
-    <t>Véronique Lesage</t>
+    <t>Veronique_Lesage</t>
   </si>
   <si>
     <t>NEOGOBIUS</t>
   </si>
   <si>
-    <t>Jaclyn Hill, Michèle Pelletier-Rousseau</t>
+    <t>Jaclyn_Hill_Michele_Pelletier-Rousseau</t>
   </si>
   <si>
     <t>CTENOPHARYNGODON</t>
@@ -291,10 +291,10 @@
     <t>OPEDNA</t>
   </si>
   <si>
-    <t>Genevieve Parent_Nellie Gagné</t>
+    <t>Genevieve_Parent_Nellie_Gagne</t>
   </si>
   <si>
-    <t>Espèces en péril, national</t>
+    <t>Especes_en_peril_national</t>
   </si>
   <si>
     <t>GENOME_REFERENCE</t>
@@ -457,11 +457,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,18 +487,21 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -827,10 +832,10 @@
       <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="6"/>
@@ -880,10 +885,10 @@
       <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="6"/>
@@ -909,7 +914,7 @@
       <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -926,13 +931,13 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="6"/>
@@ -955,7 +960,7 @@
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -964,7 +969,7 @@
       <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="11">
@@ -980,10 +985,10 @@
       <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="6"/>
@@ -1006,7 +1011,7 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1015,24 +1020,24 @@
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>2018.0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>2021.0</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="6"/>
@@ -1074,10 +1079,10 @@
       <c r="K7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="6"/>
@@ -1103,7 +1108,7 @@
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1123,10 +1128,10 @@
       <c r="K8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="6"/>
@@ -1174,10 +1179,10 @@
       <c r="K9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="6"/>
@@ -1209,7 +1214,7 @@
       <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="6"/>
@@ -1247,10 +1252,10 @@
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="6">
@@ -1265,7 +1270,7 @@
       <c r="J11" s="6">
         <v>3.0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="6"/>
@@ -1293,7 +1298,7 @@
       <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1310,7 +1315,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="6"/>
@@ -1338,7 +1343,7 @@
       <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1387,7 +1392,7 @@
       <c r="C14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1402,7 +1407,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="6"/>
@@ -1427,7 +1432,7 @@
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1481,7 +1486,7 @@
       <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="6">
@@ -1496,7 +1501,7 @@
       <c r="J16" s="6">
         <v>3.0</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="6"/>
@@ -1521,16 +1526,16 @@
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="6">
@@ -1579,7 +1584,7 @@
       <c r="E18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="6">
@@ -1617,10 +1622,10 @@
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="6">
@@ -1631,7 +1636,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="14" t="s">
         <v>69</v>
       </c>
       <c r="L19" s="6"/>
@@ -1662,10 +1667,10 @@
       <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="14" t="s">
         <v>71</v>
       </c>
       <c r="G20" s="6">
@@ -1676,7 +1681,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="6"/>
@@ -1707,10 +1712,10 @@
       <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="6">
@@ -1750,10 +1755,10 @@
       <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="6">
@@ -1839,7 +1844,7 @@
       <c r="E24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="6">
@@ -1882,7 +1887,7 @@
       <c r="E25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="6">
@@ -1923,7 +1928,7 @@
       <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="14" t="s">
         <v>84</v>
       </c>
       <c r="G26" s="6">
@@ -1968,7 +1973,7 @@
       <c r="E27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="6">
@@ -1979,7 +1984,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L27" s="6"/>
@@ -2013,7 +2018,7 @@
       <c r="E28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="6">
@@ -2024,7 +2029,7 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="6"/>
@@ -2069,7 +2074,7 @@
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L29" s="6"/>
@@ -2100,10 +2105,10 @@
       <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G30" s="6">
@@ -2118,7 +2123,7 @@
       <c r="J30" s="6">
         <v>3.0</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="14" t="s">
         <v>91</v>
       </c>
       <c r="L30" s="6"/>
@@ -2175,28 +2180,28 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="18">
         <v>2022.0</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="18">
         <v>8.0</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="18">
         <v>2023.0</v>
       </c>
       <c r="J32" s="5"/>
@@ -2223,23 +2228,23 @@
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="18" t="s">
         <v>98</v>
       </c>
       <c r="L33" s="5"/>
@@ -2264,23 +2269,23 @@
       <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="18" t="s">
         <v>98</v>
       </c>
       <c r="L34" s="5"/>
@@ -2305,22 +2310,22 @@
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="18">
         <v>2022.0</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="18">
         <v>11.0</v>
       </c>
       <c r="I35" s="5"/>
